--- a/data/lauf2-26okt_2020_10_26_18_38_24.xlsx
+++ b/data/lauf2-26okt_2020_10_26_18_38_24.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Dropbox/Repositories/Utility2MOLIS/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE736174-E041-3845-B0C4-24808730E914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="1520" yWindow="6160" windowWidth="39200" windowHeight="21960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Sheet'!$A$1:$R$193</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="226">
   <si>
     <t>A02</t>
   </si>
@@ -689,18 +698,21 @@
   </si>
   <si>
     <t>115573187001</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +725,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border outline="0">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -727,10 +739,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="0" shrinkToFit="1" readingOrder="0"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="0" shrinkToFit="1" readingOrder="0"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,6 +750,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1025,27 +1045,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="18" defaultColWidth="19.53125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.53125"/>
-    <col min="2" max="2" width="33.203125" customWidth="1"/>
-    <col min="3" max="3" width="19.53125"/>
-    <col min="4" max="4" width="39.0625" customWidth="1"/>
-    <col min="5" max="16384" width="19.53125"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>176</v>
       </c>
@@ -1101,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1112,7 +1129,7 @@
         <v>102</v>
       </c>
       <c r="D2" s="1">
-        <v>44130.7344890509</v>
+        <v>44130.734489050898</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>187</v>
@@ -1142,18 +1159,18 @@
       <c r="N2" s="2">
         <v>1.01</v>
       </c>
-      <c r="O2" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P2" s="2" t="str">
-        <v>NaN</v>
+      <c r="O2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1164,7 +1181,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="1">
-        <v>44130.7344890509</v>
+        <v>44130.734489050898</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>187</v>
@@ -1194,18 +1211,18 @@
       <c r="N3" s="2">
         <v>2.35</v>
       </c>
-      <c r="O3" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P3" s="2" t="str">
-        <v>NaN</v>
+      <c r="O3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1216,7 +1233,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="1">
-        <v>44130.7342396991</v>
+        <v>44130.734239699101</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>187</v>
@@ -1246,18 +1263,18 @@
       <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <v>NaN</v>
+      <c r="O4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1268,7 +1285,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="1">
-        <v>44130.7342396991</v>
+        <v>44130.734239699101</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>187</v>
@@ -1298,18 +1315,18 @@
       <c r="N5" s="2">
         <v>1.98</v>
       </c>
-      <c r="O5" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <v>NaN</v>
+      <c r="O5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1320,7 +1337,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="1">
-        <v>44130.7344939236</v>
+        <v>44130.734493923599</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>187</v>
@@ -1350,18 +1367,18 @@
       <c r="N6" s="2">
         <v>1.01</v>
       </c>
-      <c r="O6" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <v>NaN</v>
+      <c r="O6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1372,7 +1389,7 @@
         <v>102</v>
       </c>
       <c r="D7" s="1">
-        <v>44130.7344939236</v>
+        <v>44130.734493923599</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>187</v>
@@ -1402,8 +1419,8 @@
       <c r="N7" s="2">
         <v>2.91</v>
       </c>
-      <c r="O7" s="2" t="str">
-        <v>NaN</v>
+      <c r="O7" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P7" s="2">
         <v>34.65</v>
@@ -1413,7 +1430,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1424,7 +1441,7 @@
         <v>102</v>
       </c>
       <c r="D8" s="1">
-        <v>44130.7342243519</v>
+        <v>44130.734224351902</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>187</v>
@@ -1454,18 +1471,18 @@
       <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <v>NaN</v>
+      <c r="O8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1476,7 +1493,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="1">
-        <v>44130.7342243519</v>
+        <v>44130.734224351902</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>187</v>
@@ -1506,8 +1523,8 @@
       <c r="N9" s="2">
         <v>4.88</v>
       </c>
-      <c r="O9" s="2" t="str">
-        <v>NaN</v>
+      <c r="O9" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P9" s="2">
         <v>33.53</v>
@@ -1517,7 +1534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1528,7 +1545,7 @@
         <v>102</v>
       </c>
       <c r="D10" s="1">
-        <v>44130.7342297685</v>
+        <v>44130.734229768503</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>187</v>
@@ -1558,18 +1575,18 @@
       <c r="N10" s="2">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <v>NaN</v>
+      <c r="O10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1580,7 +1597,7 @@
         <v>102</v>
       </c>
       <c r="D11" s="1">
-        <v>44130.7342297685</v>
+        <v>44130.734229768503</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>187</v>
@@ -1610,8 +1627,8 @@
       <c r="N11" s="2">
         <v>5.78</v>
       </c>
-      <c r="O11" s="2" t="str">
-        <v>NaN</v>
+      <c r="O11" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P11" s="2">
         <v>33.51</v>
@@ -1621,7 +1638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1662,18 +1679,18 @@
       <c r="N12" s="2">
         <v>1.01</v>
       </c>
-      <c r="O12" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <v>NaN</v>
+      <c r="O12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1714,8 +1731,8 @@
       <c r="N13" s="2">
         <v>3.17</v>
       </c>
-      <c r="O13" s="2" t="str">
-        <v>NaN</v>
+      <c r="O13" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P13" s="2">
         <v>34.47</v>
@@ -1725,7 +1742,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1736,7 +1753,7 @@
         <v>102</v>
       </c>
       <c r="D14" s="1">
-        <v>44130.7342135185</v>
+        <v>44130.734213518503</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>187</v>
@@ -1766,18 +1783,18 @@
       <c r="N14" s="2">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <v>NaN</v>
+      <c r="O14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1788,7 +1805,7 @@
         <v>102</v>
       </c>
       <c r="D15" s="1">
-        <v>44130.7342135185</v>
+        <v>44130.734213518503</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>187</v>
@@ -1818,18 +1835,18 @@
       <c r="N15" s="2">
         <v>6.45</v>
       </c>
-      <c r="O15" s="2" t="str">
-        <v>NaN</v>
+      <c r="O15" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P15" s="2">
-        <v>33.62</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1840,7 +1857,7 @@
         <v>102</v>
       </c>
       <c r="D16" s="1">
-        <v>44130.7344838079</v>
+        <v>44130.734483807901</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>187</v>
@@ -1870,18 +1887,18 @@
       <c r="N16" s="2">
         <v>1.01</v>
       </c>
-      <c r="O16" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P16" s="2" t="str">
-        <v>NaN</v>
+      <c r="O16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>102</v>
       </c>
       <c r="D17" s="1">
-        <v>44130.7344838079</v>
+        <v>44130.734483807901</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>187</v>
@@ -1922,8 +1939,8 @@
       <c r="N17" s="2">
         <v>3.92</v>
       </c>
-      <c r="O17" s="2" t="str">
-        <v>NaN</v>
+      <c r="O17" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P17" s="2">
         <v>33.24</v>
@@ -1933,7 +1950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1944,7 +1961,7 @@
         <v>102</v>
       </c>
       <c r="D18" s="1">
-        <v>44130.7342187616</v>
+        <v>44130.734218761601</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>187</v>
@@ -1974,18 +1991,18 @@
       <c r="N18" s="2">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <v>NaN</v>
+      <c r="O18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1996,7 +2013,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="1">
-        <v>44130.7342187616</v>
+        <v>44130.734218761601</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>187</v>
@@ -2026,8 +2043,8 @@
       <c r="N19" s="2">
         <v>5.29</v>
       </c>
-      <c r="O19" s="2" t="str">
-        <v>NaN</v>
+      <c r="O19" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P19" s="2">
         <v>33.56</v>
@@ -2037,7 +2054,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2048,7 +2065,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="1">
-        <v>44130.7344657523</v>
+        <v>44130.734465752299</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>187</v>
@@ -2078,8 +2095,8 @@
       <c r="N20" s="2">
         <v>1.74</v>
       </c>
-      <c r="O20" s="2" t="str">
-        <v>NaN</v>
+      <c r="O20" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P20" s="2">
         <v>21.89</v>
@@ -2089,7 +2106,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2100,7 +2117,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="1">
-        <v>44130.7344657523</v>
+        <v>44130.734465752299</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>187</v>
@@ -2130,8 +2147,8 @@
       <c r="N21" s="2">
         <v>6.4</v>
       </c>
-      <c r="O21" s="2" t="str">
-        <v>NaN</v>
+      <c r="O21" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P21" s="2">
         <v>35.03</v>
@@ -2141,7 +2158,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2152,7 +2169,7 @@
         <v>102</v>
       </c>
       <c r="D22" s="1">
-        <v>44130.734471713</v>
+        <v>44130.734471713004</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>187</v>
@@ -2182,18 +2199,18 @@
       <c r="N22" s="2">
         <v>1.02</v>
       </c>
-      <c r="O22" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P22" s="2" t="str">
-        <v>NaN</v>
+      <c r="O22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2204,7 +2221,7 @@
         <v>102</v>
       </c>
       <c r="D23" s="1">
-        <v>44130.734471713</v>
+        <v>44130.734471713004</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>187</v>
@@ -2232,20 +2249,20 @@
         <v>146</v>
       </c>
       <c r="N23" s="2">
-        <v>2.49</v>
-      </c>
-      <c r="O23" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P23" s="2" t="str">
-        <v>NaN</v>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2256,7 +2273,7 @@
         <v>102</v>
       </c>
       <c r="D24" s="1">
-        <v>44130.7342012384</v>
+        <v>44130.734201238403</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>187</v>
@@ -2286,18 +2303,18 @@
       <c r="N24" s="2">
         <v>1.01</v>
       </c>
-      <c r="O24" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P24" s="2" t="str">
-        <v>NaN</v>
+      <c r="O24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2308,7 +2325,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="1">
-        <v>44130.7342012384</v>
+        <v>44130.734201238403</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>187</v>
@@ -2338,8 +2355,8 @@
       <c r="N25" s="2">
         <v>5.39</v>
       </c>
-      <c r="O25" s="2" t="str">
-        <v>NaN</v>
+      <c r="O25" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P25" s="2">
         <v>33.44</v>
@@ -2349,7 +2366,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2360,7 +2377,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="1">
-        <v>44130.7344551042</v>
+        <v>44130.734455104197</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>187</v>
@@ -2390,18 +2407,18 @@
       <c r="N26" s="2">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <v>NaN</v>
+      <c r="O26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2412,7 +2429,7 @@
         <v>102</v>
       </c>
       <c r="D27" s="1">
-        <v>44130.7344551042</v>
+        <v>44130.734455104197</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>187</v>
@@ -2442,8 +2459,8 @@
       <c r="N27" s="2">
         <v>3.45</v>
       </c>
-      <c r="O27" s="2" t="str">
-        <v>NaN</v>
+      <c r="O27" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P27" s="2">
         <v>34.65</v>
@@ -2453,7 +2470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>102</v>
       </c>
       <c r="D28" s="1">
-        <v>44130.7342077431</v>
+        <v>44130.734207743102</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>187</v>
@@ -2492,20 +2509,20 @@
         <v>216</v>
       </c>
       <c r="N28" s="2">
-        <v>1.12</v>
-      </c>
-      <c r="O28" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P28" s="2" t="str">
-        <v>NaN</v>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>102</v>
       </c>
       <c r="D29" s="1">
-        <v>44130.7342077431</v>
+        <v>44130.734207743102</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>187</v>
@@ -2544,20 +2561,20 @@
         <v>146</v>
       </c>
       <c r="N29" s="2">
-        <v>4.89</v>
-      </c>
-      <c r="O29" s="2" t="str">
-        <v>NaN</v>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P29" s="2">
-        <v>33.34</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2568,7 +2585,7 @@
         <v>102</v>
       </c>
       <c r="D30" s="1">
-        <v>44130.7341898727</v>
+        <v>44130.734189872703</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>187</v>
@@ -2598,18 +2615,18 @@
       <c r="N30" s="2">
         <v>1.08</v>
       </c>
-      <c r="O30" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P30" s="2" t="str">
-        <v>NaN</v>
+      <c r="O30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2620,7 +2637,7 @@
         <v>102</v>
       </c>
       <c r="D31" s="1">
-        <v>44130.7341898727</v>
+        <v>44130.734189872703</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>187</v>
@@ -2650,18 +2667,18 @@
       <c r="N31" s="2">
         <v>2.42</v>
       </c>
-      <c r="O31" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P31" s="2" t="str">
-        <v>NaN</v>
+      <c r="O31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2672,7 +2689,7 @@
         <v>102</v>
       </c>
       <c r="D32" s="1">
-        <v>44130.7344603356</v>
+        <v>44130.734460335603</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>187</v>
@@ -2702,18 +2719,18 @@
       <c r="N32" s="2">
         <v>1.01</v>
       </c>
-      <c r="O32" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P32" s="2" t="str">
-        <v>NaN</v>
+      <c r="O32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>102</v>
       </c>
       <c r="D33" s="1">
-        <v>44130.7344603356</v>
+        <v>44130.734460335603</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>187</v>
@@ -2754,18 +2771,18 @@
       <c r="N33" s="2">
         <v>3.3</v>
       </c>
-      <c r="O33" s="2" t="str">
-        <v>NaN</v>
+      <c r="O33" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P33" s="2">
-        <v>34.45</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -2776,7 +2793,7 @@
         <v>102</v>
       </c>
       <c r="D34" s="1">
-        <v>44130.734443912</v>
+        <v>44130.734443911999</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>187</v>
@@ -2806,18 +2823,18 @@
       <c r="N34" s="2">
         <v>1.01</v>
       </c>
-      <c r="O34" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P34" s="2" t="str">
-        <v>NaN</v>
+      <c r="O34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -2828,7 +2845,7 @@
         <v>102</v>
       </c>
       <c r="D35" s="1">
-        <v>44130.734443912</v>
+        <v>44130.734443911999</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>187</v>
@@ -2858,18 +2875,18 @@
       <c r="N35" s="2">
         <v>4.51</v>
       </c>
-      <c r="O35" s="2" t="str">
-        <v>NaN</v>
+      <c r="O35" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P35" s="2">
-        <v>33.37</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>102</v>
       </c>
       <c r="D36" s="1">
-        <v>44130.7341947454</v>
+        <v>44130.734194745397</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>187</v>
@@ -2910,18 +2927,18 @@
       <c r="N36" s="2">
         <v>1.02</v>
       </c>
-      <c r="O36" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P36" s="2" t="str">
-        <v>NaN</v>
+      <c r="O36" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -2932,7 +2949,7 @@
         <v>102</v>
       </c>
       <c r="D37" s="1">
-        <v>44130.7341947454</v>
+        <v>44130.734194745397</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>187</v>
@@ -2962,18 +2979,18 @@
       <c r="N37" s="2">
         <v>4.38</v>
       </c>
-      <c r="O37" s="2" t="str">
-        <v>NaN</v>
+      <c r="O37" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P37" s="2">
-        <v>33.84</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -2984,7 +3001,7 @@
         <v>102</v>
       </c>
       <c r="D38" s="1">
-        <v>44130.7344493287</v>
+        <v>44130.734449328702</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>187</v>
@@ -3014,18 +3031,18 @@
       <c r="N38" s="2">
         <v>1</v>
       </c>
-      <c r="O38" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P38" s="2" t="str">
-        <v>NaN</v>
+      <c r="O38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3036,7 +3053,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="1">
-        <v>44130.7344493287</v>
+        <v>44130.734449328702</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>187</v>
@@ -3066,8 +3083,8 @@
       <c r="N39" s="2">
         <v>4.79</v>
       </c>
-      <c r="O39" s="2" t="str">
-        <v>NaN</v>
+      <c r="O39" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P39" s="2">
         <v>33.75</v>
@@ -3077,7 +3094,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3088,7 +3105,7 @@
         <v>102</v>
       </c>
       <c r="D40" s="1">
-        <v>44130.7341803009</v>
+        <v>44130.734180300897</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>187</v>
@@ -3118,18 +3135,18 @@
       <c r="N40" s="2">
         <v>1.01</v>
       </c>
-      <c r="O40" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P40" s="2" t="str">
-        <v>NaN</v>
+      <c r="O40" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3140,7 +3157,7 @@
         <v>102</v>
       </c>
       <c r="D41" s="1">
-        <v>44130.7341803009</v>
+        <v>44130.734180300897</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>187</v>
@@ -3170,8 +3187,8 @@
       <c r="N41" s="2">
         <v>2.63</v>
       </c>
-      <c r="O41" s="2" t="str">
-        <v>NaN</v>
+      <c r="O41" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P41" s="2">
         <v>34.36</v>
@@ -3181,7 +3198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3222,18 +3239,18 @@
       <c r="N42" s="2">
         <v>1.04</v>
       </c>
-      <c r="O42" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P42" s="2" t="str">
-        <v>NaN</v>
+      <c r="O42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3274,18 +3291,18 @@
       <c r="N43" s="2">
         <v>2.29</v>
       </c>
-      <c r="O43" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P43" s="2" t="str">
-        <v>NaN</v>
+      <c r="O43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -3296,7 +3313,7 @@
         <v>102</v>
       </c>
       <c r="D44" s="1">
-        <v>44130.7341851736</v>
+        <v>44130.734185173598</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>187</v>
@@ -3326,18 +3343,18 @@
       <c r="N44" s="2">
         <v>1.01</v>
       </c>
-      <c r="O44" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P44" s="2" t="str">
-        <v>NaN</v>
+      <c r="O44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3348,7 +3365,7 @@
         <v>102</v>
       </c>
       <c r="D45" s="1">
-        <v>44130.7341851736</v>
+        <v>44130.734185173598</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>187</v>
@@ -3376,20 +3393,20 @@
         <v>146</v>
       </c>
       <c r="N45" s="2">
-        <v>2.43</v>
-      </c>
-      <c r="O45" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P45" s="2" t="str">
-        <v>NaN</v>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -3400,7 +3417,7 @@
         <v>102</v>
       </c>
       <c r="D46" s="1">
-        <v>44130.7341746991</v>
+        <v>44130.734174699101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>187</v>
@@ -3430,8 +3447,8 @@
       <c r="N46" s="2">
         <v>1.29</v>
       </c>
-      <c r="O46" s="2" t="str">
-        <v>NaN</v>
+      <c r="O46" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P46" s="2">
         <v>38.07</v>
@@ -3441,7 +3458,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>102</v>
       </c>
       <c r="D47" s="1">
-        <v>44130.7341746991</v>
+        <v>44130.734174699101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>187</v>
@@ -3482,18 +3499,18 @@
       <c r="N47" s="2">
         <v>2.37</v>
       </c>
-      <c r="O47" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P47" s="2" t="str">
-        <v>NaN</v>
+      <c r="O47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3504,7 +3521,7 @@
         <v>102</v>
       </c>
       <c r="D48" s="1">
-        <v>44130.7344390393</v>
+        <v>44130.734439039297</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>187</v>
@@ -3534,18 +3551,18 @@
       <c r="N48" s="2">
         <v>1.02</v>
       </c>
-      <c r="O48" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P48" s="2" t="str">
-        <v>NaN</v>
+      <c r="O48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3556,7 +3573,7 @@
         <v>102</v>
       </c>
       <c r="D49" s="1">
-        <v>44130.7344390393</v>
+        <v>44130.734439039297</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>187</v>
@@ -3586,18 +3603,18 @@
       <c r="N49" s="2">
         <v>3.51</v>
       </c>
-      <c r="O49" s="2" t="str">
-        <v>NaN</v>
+      <c r="O49" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P49" s="2">
-        <v>33.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -3608,7 +3625,7 @@
         <v>102</v>
       </c>
       <c r="D50" s="1">
-        <v>44130.7344227894</v>
+        <v>44130.734422789399</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>187</v>
@@ -3638,18 +3655,18 @@
       <c r="N50" s="2">
         <v>1.01</v>
       </c>
-      <c r="O50" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P50" s="2" t="str">
-        <v>NaN</v>
+      <c r="O50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3660,7 +3677,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="1">
-        <v>44130.7344227894</v>
+        <v>44130.734422789399</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>187</v>
@@ -3690,8 +3707,8 @@
       <c r="N51" s="2">
         <v>4.01</v>
       </c>
-      <c r="O51" s="2" t="str">
-        <v>NaN</v>
+      <c r="O51" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P51" s="2">
         <v>34.17</v>
@@ -3701,7 +3718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -3712,7 +3729,7 @@
         <v>102</v>
       </c>
       <c r="D52" s="1">
-        <v>44130.7341692824</v>
+        <v>44130.734169282397</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>187</v>
@@ -3742,18 +3759,18 @@
       <c r="N52" s="2">
         <v>1</v>
       </c>
-      <c r="O52" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P52" s="2" t="str">
-        <v>NaN</v>
+      <c r="O52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -3764,7 +3781,7 @@
         <v>102</v>
       </c>
       <c r="D53" s="1">
-        <v>44130.7341692824</v>
+        <v>44130.734169282397</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>187</v>
@@ -3794,18 +3811,18 @@
       <c r="N53" s="2">
         <v>4.16</v>
       </c>
-      <c r="O53" s="2" t="str">
-        <v>NaN</v>
+      <c r="O53" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P53" s="2">
-        <v>33.88</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -3816,7 +3833,7 @@
         <v>102</v>
       </c>
       <c r="D54" s="1">
-        <v>44130.7344280208</v>
+        <v>44130.734428020798</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>187</v>
@@ -3846,8 +3863,8 @@
       <c r="N54" s="2">
         <v>1.4</v>
       </c>
-      <c r="O54" s="2" t="str">
-        <v>NaN</v>
+      <c r="O54" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P54" s="2">
         <v>37.04</v>
@@ -3857,7 +3874,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -3868,7 +3885,7 @@
         <v>102</v>
       </c>
       <c r="D55" s="1">
-        <v>44130.7344280208</v>
+        <v>44130.734428020798</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>187</v>
@@ -3898,8 +3915,8 @@
       <c r="N55" s="2">
         <v>3.31</v>
       </c>
-      <c r="O55" s="2" t="str">
-        <v>NaN</v>
+      <c r="O55" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P55" s="2">
         <v>34.19</v>
@@ -3909,7 +3926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -3920,7 +3937,7 @@
         <v>102</v>
       </c>
       <c r="D56" s="1">
-        <v>44130.7341566435</v>
+        <v>44130.734156643499</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>187</v>
@@ -3950,18 +3967,18 @@
       <c r="N56" s="2">
         <v>1</v>
       </c>
-      <c r="O56" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P56" s="2" t="str">
-        <v>NaN</v>
+      <c r="O56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -3972,7 +3989,7 @@
         <v>102</v>
       </c>
       <c r="D57" s="1">
-        <v>44130.7341566435</v>
+        <v>44130.734156643499</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>187</v>
@@ -4002,8 +4019,8 @@
       <c r="N57" s="2">
         <v>5.38</v>
       </c>
-      <c r="O57" s="2" t="str">
-        <v>NaN</v>
+      <c r="O57" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P57" s="2">
         <v>33.61</v>
@@ -4013,7 +4030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -4024,7 +4041,7 @@
         <v>102</v>
       </c>
       <c r="D58" s="1">
-        <v>44130.734162419</v>
+        <v>44130.734162419001</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>187</v>
@@ -4054,8 +4071,8 @@
       <c r="N58" s="2">
         <v>1.75</v>
       </c>
-      <c r="O58" s="2" t="str">
-        <v>NaN</v>
+      <c r="O58" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P58" s="2">
         <v>21.04</v>
@@ -4065,7 +4082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -4076,7 +4093,7 @@
         <v>102</v>
       </c>
       <c r="D59" s="1">
-        <v>44130.734162419</v>
+        <v>44130.734162419001</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>187</v>
@@ -4106,18 +4123,18 @@
       <c r="N59" s="2">
         <v>8.56</v>
       </c>
-      <c r="O59" s="2" t="str">
-        <v>NaN</v>
+      <c r="O59" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P59" s="2">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>102</v>
       </c>
       <c r="D60" s="1">
-        <v>44130.7344083449</v>
+        <v>44130.734408344899</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>187</v>
@@ -4158,8 +4175,8 @@
       <c r="N60" s="2">
         <v>1.81</v>
       </c>
-      <c r="O60" s="2" t="str">
-        <v>NaN</v>
+      <c r="O60" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P60" s="2">
         <v>16.48</v>
@@ -4169,7 +4186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4180,7 +4197,7 @@
         <v>102</v>
       </c>
       <c r="D61" s="1">
-        <v>44130.7344083449</v>
+        <v>44130.734408344899</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>187</v>
@@ -4210,8 +4227,8 @@
       <c r="N61" s="2">
         <v>9.41</v>
       </c>
-      <c r="O61" s="2" t="str">
-        <v>NaN</v>
+      <c r="O61" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P61" s="2">
         <v>34.26</v>
@@ -4221,7 +4238,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -4232,7 +4249,7 @@
         <v>102</v>
       </c>
       <c r="D62" s="1">
-        <v>44130.7341420139</v>
+        <v>44130.734142013898</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>187</v>
@@ -4262,18 +4279,18 @@
       <c r="N62" s="2">
         <v>1.01</v>
       </c>
-      <c r="O62" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P62" s="2" t="str">
-        <v>NaN</v>
+      <c r="O62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -4284,7 +4301,7 @@
         <v>102</v>
       </c>
       <c r="D63" s="1">
-        <v>44130.7341420139</v>
+        <v>44130.734142013898</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>187</v>
@@ -4314,8 +4331,8 @@
       <c r="N63" s="2">
         <v>3.95</v>
       </c>
-      <c r="O63" s="2" t="str">
-        <v>NaN</v>
+      <c r="O63" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P63" s="2">
         <v>34.46</v>
@@ -4325,7 +4342,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -4336,7 +4353,7 @@
         <v>102</v>
       </c>
       <c r="D64" s="1">
-        <v>44130.7344177315</v>
+        <v>44130.734417731503</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>187</v>
@@ -4366,18 +4383,18 @@
       <c r="N64" s="2">
         <v>1</v>
       </c>
-      <c r="O64" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P64" s="2" t="str">
-        <v>NaN</v>
+      <c r="O64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -4388,7 +4405,7 @@
         <v>102</v>
       </c>
       <c r="D65" s="1">
-        <v>44130.7344177315</v>
+        <v>44130.734417731503</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>187</v>
@@ -4418,8 +4435,8 @@
       <c r="N65" s="2">
         <v>3.04</v>
       </c>
-      <c r="O65" s="2" t="str">
-        <v>NaN</v>
+      <c r="O65" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P65" s="2">
         <v>34.43</v>
@@ -4429,7 +4446,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4440,7 +4457,7 @@
         <v>102</v>
       </c>
       <c r="D66" s="1">
-        <v>44130.7341519444</v>
+        <v>44130.734151944402</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>187</v>
@@ -4470,18 +4487,18 @@
       <c r="N66" s="2">
         <v>1</v>
       </c>
-      <c r="O66" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P66" s="2" t="str">
-        <v>NaN</v>
+      <c r="O66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>102</v>
       </c>
       <c r="D67" s="1">
-        <v>44130.7341519444</v>
+        <v>44130.734151944402</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>187</v>
@@ -4522,8 +4539,8 @@
       <c r="N67" s="2">
         <v>2.67</v>
       </c>
-      <c r="O67" s="2" t="str">
-        <v>NaN</v>
+      <c r="O67" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P67" s="2">
         <v>35.04</v>
@@ -4533,7 +4550,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -4544,7 +4561,7 @@
         <v>102</v>
       </c>
       <c r="D68" s="1">
-        <v>44130.7344124884</v>
+        <v>44130.734412488397</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>187</v>
@@ -4574,18 +4591,18 @@
       <c r="N68" s="2">
         <v>1.01</v>
       </c>
-      <c r="O68" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P68" s="2" t="str">
-        <v>NaN</v>
+      <c r="O68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4596,7 +4613,7 @@
         <v>102</v>
       </c>
       <c r="D69" s="1">
-        <v>44130.7344124884</v>
+        <v>44130.734412488397</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>187</v>
@@ -4626,18 +4643,18 @@
       <c r="N69" s="2">
         <v>1.98</v>
       </c>
-      <c r="O69" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P69" s="2" t="str">
-        <v>NaN</v>
+      <c r="O69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -4678,18 +4695,18 @@
       <c r="N70" s="2">
         <v>1.01</v>
       </c>
-      <c r="O70" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P70" s="2" t="str">
-        <v>NaN</v>
+      <c r="O70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -4730,18 +4747,18 @@
       <c r="N71" s="2">
         <v>3.49</v>
       </c>
-      <c r="O71" s="2" t="str">
-        <v>NaN</v>
+      <c r="O71" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P71" s="2">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4752,7 +4769,7 @@
         <v>102</v>
       </c>
       <c r="D72" s="1">
-        <v>44130.7341468981</v>
+        <v>44130.734146898103</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>187</v>
@@ -4782,18 +4799,18 @@
       <c r="N72" s="2">
         <v>1</v>
       </c>
-      <c r="O72" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P72" s="2" t="str">
-        <v>NaN</v>
+      <c r="O72" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4804,7 +4821,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="1">
-        <v>44130.7341468981</v>
+        <v>44130.734146898103</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>187</v>
@@ -4834,8 +4851,8 @@
       <c r="N73" s="2">
         <v>2.94</v>
       </c>
-      <c r="O73" s="2" t="str">
-        <v>NaN</v>
+      <c r="O73" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P73" s="2">
         <v>34.76</v>
@@ -4845,7 +4862,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -4856,7 +4873,7 @@
         <v>102</v>
       </c>
       <c r="D74" s="1">
-        <v>44130.734403287</v>
+        <v>44130.734403287002</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>187</v>
@@ -4886,8 +4903,8 @@
       <c r="N74" s="2">
         <v>1.3</v>
       </c>
-      <c r="O74" s="2" t="str">
-        <v>NaN</v>
+      <c r="O74" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P74" s="2">
         <v>39.83</v>
@@ -4897,7 +4914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -4908,7 +4925,7 @@
         <v>102</v>
       </c>
       <c r="D75" s="1">
-        <v>44130.734403287</v>
+        <v>44130.734403287002</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>187</v>
@@ -4938,8 +4955,8 @@
       <c r="N75" s="2">
         <v>6.46</v>
       </c>
-      <c r="O75" s="2" t="str">
-        <v>NaN</v>
+      <c r="O75" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P75" s="2">
         <v>32.74</v>
@@ -4949,7 +4966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -4960,7 +4977,7 @@
         <v>102</v>
       </c>
       <c r="D76" s="1">
-        <v>44130.7341313657</v>
+        <v>44130.734131365702</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>187</v>
@@ -4990,18 +5007,18 @@
       <c r="N76" s="2">
         <v>1.02</v>
       </c>
-      <c r="O76" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P76" s="2" t="str">
-        <v>NaN</v>
+      <c r="O76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -5012,7 +5029,7 @@
         <v>102</v>
       </c>
       <c r="D77" s="1">
-        <v>44130.7341313657</v>
+        <v>44130.734131365702</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>187</v>
@@ -5042,18 +5059,18 @@
       <c r="N77" s="2">
         <v>2.15</v>
       </c>
-      <c r="O77" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P77" s="2" t="str">
-        <v>NaN</v>
+      <c r="O77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -5064,7 +5081,7 @@
         <v>102</v>
       </c>
       <c r="D78" s="1">
-        <v>44130.7341371412</v>
+        <v>44130.734137141197</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>187</v>
@@ -5094,18 +5111,18 @@
       <c r="N78" s="2">
         <v>1.01</v>
       </c>
-      <c r="O78" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P78" s="2" t="str">
-        <v>NaN</v>
+      <c r="O78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -5116,7 +5133,7 @@
         <v>102</v>
       </c>
       <c r="D79" s="1">
-        <v>44130.7341371412</v>
+        <v>44130.734137141197</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>187</v>
@@ -5146,18 +5163,18 @@
       <c r="N79" s="2">
         <v>6.18</v>
       </c>
-      <c r="O79" s="2" t="str">
-        <v>NaN</v>
+      <c r="O79" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P79" s="2">
-        <v>33.16</v>
+        <v>33.159999999999997</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -5198,18 +5215,18 @@
       <c r="N80" s="2">
         <v>1.01</v>
       </c>
-      <c r="O80" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P80" s="2" t="str">
-        <v>NaN</v>
+      <c r="O80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -5250,18 +5267,18 @@
       <c r="N81" s="2">
         <v>4.83</v>
       </c>
-      <c r="O81" s="2" t="str">
-        <v>NaN</v>
+      <c r="O81" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P81" s="2">
-        <v>33.87</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -5272,7 +5289,7 @@
         <v>102</v>
       </c>
       <c r="D82" s="1">
-        <v>44130.7343913657</v>
+        <v>44130.734391365702</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>187</v>
@@ -5302,18 +5319,18 @@
       <c r="N82" s="2">
         <v>1.02</v>
       </c>
-      <c r="O82" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P82" s="2" t="str">
-        <v>NaN</v>
+      <c r="O82" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -5324,7 +5341,7 @@
         <v>102</v>
       </c>
       <c r="D83" s="1">
-        <v>44130.7343913657</v>
+        <v>44130.734391365702</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>187</v>
@@ -5354,18 +5371,18 @@
       <c r="N83" s="2">
         <v>5.52</v>
       </c>
-      <c r="O83" s="2" t="str">
-        <v>NaN</v>
+      <c r="O83" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P83" s="2">
-        <v>33.52</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5406,18 +5423,18 @@
       <c r="N84" s="2">
         <v>1.08</v>
       </c>
-      <c r="O84" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P84" s="2" t="str">
-        <v>NaN</v>
+      <c r="O84" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -5456,20 +5473,20 @@
         <v>146</v>
       </c>
       <c r="N85" s="2">
-        <v>2.22</v>
-      </c>
-      <c r="O85" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P85" s="2" t="str">
-        <v>NaN</v>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -5480,7 +5497,7 @@
         <v>102</v>
       </c>
       <c r="D86" s="1">
-        <v>44130.7343743981</v>
+        <v>44130.734374398096</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>187</v>
@@ -5510,18 +5527,18 @@
       <c r="N86" s="2">
         <v>1</v>
       </c>
-      <c r="O86" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P86" s="2" t="str">
-        <v>NaN</v>
+      <c r="O86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>1</v>
       </c>
@@ -5532,7 +5549,7 @@
         <v>102</v>
       </c>
       <c r="D87" s="1">
-        <v>44130.7343743981</v>
+        <v>44130.734374398096</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>187</v>
@@ -5560,20 +5577,20 @@
         <v>146</v>
       </c>
       <c r="N87" s="2">
-        <v>4.23</v>
-      </c>
-      <c r="O87" s="2" t="str">
-        <v>NaN</v>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P87" s="2">
-        <v>33.63</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -5584,7 +5601,7 @@
         <v>102</v>
       </c>
       <c r="D88" s="1">
-        <v>44130.7341264931</v>
+        <v>44130.734126493102</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>187</v>
@@ -5614,18 +5631,18 @@
       <c r="N88" s="2">
         <v>1.02</v>
       </c>
-      <c r="O88" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P88" s="2" t="str">
-        <v>NaN</v>
+      <c r="O88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="D89" s="1">
-        <v>44130.7341264931</v>
+        <v>44130.734126493102</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>187</v>
@@ -5666,8 +5683,8 @@
       <c r="N89" s="2">
         <v>2.63</v>
       </c>
-      <c r="O89" s="2" t="str">
-        <v>NaN</v>
+      <c r="O89" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P89" s="2">
         <v>35.26</v>
@@ -5677,7 +5694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -5716,20 +5733,20 @@
         <v>216</v>
       </c>
       <c r="N90" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="O90" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P90" s="2" t="str">
-        <v>NaN</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>1</v>
       </c>
@@ -5770,8 +5787,8 @@
       <c r="N91" s="2">
         <v>3.02</v>
       </c>
-      <c r="O91" s="2" t="str">
-        <v>NaN</v>
+      <c r="O91" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P91" s="2">
         <v>34.32</v>
@@ -5781,7 +5798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -5792,7 +5809,7 @@
         <v>102</v>
       </c>
       <c r="D92" s="1">
-        <v>44130.7343798148</v>
+        <v>44130.734379814799</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>187</v>
@@ -5822,18 +5839,18 @@
       <c r="N92" s="2">
         <v>1.01</v>
       </c>
-      <c r="O92" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P92" s="2" t="str">
-        <v>NaN</v>
+      <c r="O92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>1</v>
       </c>
@@ -5844,7 +5861,7 @@
         <v>102</v>
       </c>
       <c r="D93" s="1">
-        <v>44130.7343798148</v>
+        <v>44130.734379814799</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>187</v>
@@ -5874,8 +5891,8 @@
       <c r="N93" s="2">
         <v>4.2</v>
       </c>
-      <c r="O93" s="2" t="str">
-        <v>NaN</v>
+      <c r="O93" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P93" s="2">
         <v>33.71</v>
@@ -5885,7 +5902,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -5896,7 +5913,7 @@
         <v>102</v>
       </c>
       <c r="D94" s="1">
-        <v>44130.7343653704</v>
+        <v>44130.734365370401</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>187</v>
@@ -5926,18 +5943,18 @@
       <c r="N94" s="2">
         <v>1</v>
       </c>
-      <c r="O94" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P94" s="2" t="str">
-        <v>NaN</v>
+      <c r="O94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -5948,7 +5965,7 @@
         <v>102</v>
       </c>
       <c r="D95" s="1">
-        <v>44130.7343653704</v>
+        <v>44130.734365370401</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>187</v>
@@ -5978,18 +5995,18 @@
       <c r="N95" s="2">
         <v>1.76</v>
       </c>
-      <c r="O95" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P95" s="2" t="str">
-        <v>NaN</v>
+      <c r="O95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -6000,7 +6017,7 @@
         <v>102</v>
       </c>
       <c r="D96" s="1">
-        <v>44130.7341156597</v>
+        <v>44130.734115659703</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>187</v>
@@ -6030,18 +6047,18 @@
       <c r="N96" s="2">
         <v>1.01</v>
       </c>
-      <c r="O96" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P96" s="2" t="str">
-        <v>NaN</v>
+      <c r="O96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -6052,7 +6069,7 @@
         <v>102</v>
       </c>
       <c r="D97" s="1">
-        <v>44130.7341156597</v>
+        <v>44130.734115659703</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>187</v>
@@ -6082,8 +6099,8 @@
       <c r="N97" s="2">
         <v>4.68</v>
       </c>
-      <c r="O97" s="2" t="str">
-        <v>NaN</v>
+      <c r="O97" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P97" s="2">
         <v>33.17</v>
@@ -6093,7 +6110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -6104,7 +6121,7 @@
         <v>102</v>
       </c>
       <c r="D98" s="1">
-        <v>44130.7343698843</v>
+        <v>44130.734369884303</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>187</v>
@@ -6134,18 +6151,18 @@
       <c r="N98" s="2">
         <v>1.02</v>
       </c>
-      <c r="O98" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P98" s="2" t="str">
-        <v>NaN</v>
+      <c r="O98" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -6156,7 +6173,7 @@
         <v>102</v>
       </c>
       <c r="D99" s="1">
-        <v>44130.7343698843</v>
+        <v>44130.734369884303</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>187</v>
@@ -6186,18 +6203,18 @@
       <c r="N99" s="2">
         <v>2</v>
       </c>
-      <c r="O99" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P99" s="2" t="str">
-        <v>NaN</v>
+      <c r="O99" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>1</v>
       </c>
@@ -6208,7 +6225,7 @@
         <v>102</v>
       </c>
       <c r="D100" s="1">
-        <v>44130.734097963</v>
+        <v>44130.734097963003</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>187</v>
@@ -6238,8 +6255,8 @@
       <c r="N100" s="2">
         <v>1.74</v>
       </c>
-      <c r="O100" s="2" t="str">
-        <v>NaN</v>
+      <c r="O100" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P100" s="2">
         <v>22.5</v>
@@ -6249,7 +6266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -6260,7 +6277,7 @@
         <v>102</v>
       </c>
       <c r="D101" s="1">
-        <v>44130.734097963</v>
+        <v>44130.734097963003</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>187</v>
@@ -6288,10 +6305,10 @@
         <v>146</v>
       </c>
       <c r="N101" s="2">
-        <v>8.3</v>
-      </c>
-      <c r="O101" s="2" t="str">
-        <v>NaN</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P101" s="2">
         <v>33.81</v>
@@ -6301,7 +6318,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -6312,7 +6329,7 @@
         <v>102</v>
       </c>
       <c r="D102" s="1">
-        <v>44130.7341040972</v>
+        <v>44130.734104097202</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>187</v>
@@ -6342,18 +6359,18 @@
       <c r="N102" s="2">
         <v>1.01</v>
       </c>
-      <c r="O102" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P102" s="2" t="str">
-        <v>NaN</v>
+      <c r="O102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -6364,7 +6381,7 @@
         <v>102</v>
       </c>
       <c r="D103" s="1">
-        <v>44130.7341040972</v>
+        <v>44130.734104097202</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>187</v>
@@ -6394,18 +6411,18 @@
       <c r="N103" s="2">
         <v>3.35</v>
       </c>
-      <c r="O103" s="2" t="str">
-        <v>NaN</v>
+      <c r="O103" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P103" s="2">
-        <v>33.48</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -6416,7 +6433,7 @@
         <v>102</v>
       </c>
       <c r="D104" s="1">
-        <v>44130.7343496644</v>
+        <v>44130.734349664403</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>187</v>
@@ -6446,18 +6463,18 @@
       <c r="N104" s="2">
         <v>1.01</v>
       </c>
-      <c r="O104" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P104" s="2" t="str">
-        <v>NaN</v>
+      <c r="O104" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -6468,7 +6485,7 @@
         <v>102</v>
       </c>
       <c r="D105" s="1">
-        <v>44130.7343496644</v>
+        <v>44130.734349664403</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>187</v>
@@ -6498,18 +6515,18 @@
       <c r="N105" s="2">
         <v>4.22</v>
       </c>
-      <c r="O105" s="2" t="str">
-        <v>NaN</v>
+      <c r="O105" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P105" s="2">
-        <v>34.16</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -6520,7 +6537,7 @@
         <v>102</v>
       </c>
       <c r="D106" s="1">
-        <v>44130.7340860417</v>
+        <v>44130.734086041703</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>187</v>
@@ -6550,18 +6567,18 @@
       <c r="N106" s="2">
         <v>1</v>
       </c>
-      <c r="O106" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P106" s="2" t="str">
-        <v>NaN</v>
+      <c r="O106" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -6572,7 +6589,7 @@
         <v>102</v>
       </c>
       <c r="D107" s="1">
-        <v>44130.7340860417</v>
+        <v>44130.734086041703</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>187</v>
@@ -6602,8 +6619,8 @@
       <c r="N107" s="2">
         <v>4.32</v>
       </c>
-      <c r="O107" s="2" t="str">
-        <v>NaN</v>
+      <c r="O107" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P107" s="2">
         <v>33.68</v>
@@ -6613,7 +6630,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -6624,7 +6641,7 @@
         <v>102</v>
       </c>
       <c r="D108" s="1">
-        <v>44130.7343603125</v>
+        <v>44130.734360312497</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>187</v>
@@ -6654,18 +6671,18 @@
       <c r="N108" s="2">
         <v>1.01</v>
       </c>
-      <c r="O108" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P108" s="2" t="str">
-        <v>NaN</v>
+      <c r="O108" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -6676,7 +6693,7 @@
         <v>102</v>
       </c>
       <c r="D109" s="1">
-        <v>44130.7343603125</v>
+        <v>44130.734360312497</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>187</v>
@@ -6706,8 +6723,8 @@
       <c r="N109" s="2">
         <v>3.15</v>
       </c>
-      <c r="O109" s="2" t="str">
-        <v>NaN</v>
+      <c r="O109" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P109" s="2">
         <v>34.01</v>
@@ -6717,7 +6734,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -6728,7 +6745,7 @@
         <v>102</v>
       </c>
       <c r="D110" s="1">
-        <v>44130.7343552546</v>
+        <v>44130.734355254601</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>187</v>
@@ -6758,18 +6775,18 @@
       <c r="N110" s="2">
         <v>1.05</v>
       </c>
-      <c r="O110" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P110" s="2" t="str">
-        <v>NaN</v>
+      <c r="O110" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -6780,7 +6797,7 @@
         <v>102</v>
       </c>
       <c r="D111" s="1">
-        <v>44130.7343552546</v>
+        <v>44130.734355254601</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>187</v>
@@ -6810,18 +6827,18 @@
       <c r="N111" s="2">
         <v>3.19</v>
       </c>
-      <c r="O111" s="2" t="str">
-        <v>NaN</v>
+      <c r="O111" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P111" s="2">
-        <v>34.34</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -6862,18 +6879,18 @@
       <c r="N112" s="2">
         <v>1.01</v>
       </c>
-      <c r="O112" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P112" s="2" t="str">
-        <v>NaN</v>
+      <c r="O112" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -6914,8 +6931,8 @@
       <c r="N113" s="2">
         <v>3.99</v>
       </c>
-      <c r="O113" s="2" t="str">
-        <v>NaN</v>
+      <c r="O113" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P113" s="2">
         <v>33.61</v>
@@ -6925,7 +6942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -6936,7 +6953,7 @@
         <v>102</v>
       </c>
       <c r="D114" s="1">
-        <v>44130.7343379282</v>
+        <v>44130.734337928203</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>187</v>
@@ -6966,18 +6983,18 @@
       <c r="N114" s="2">
         <v>1</v>
       </c>
-      <c r="O114" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P114" s="2" t="str">
-        <v>NaN</v>
+      <c r="O114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -6988,7 +7005,7 @@
         <v>102</v>
       </c>
       <c r="D115" s="1">
-        <v>44130.7343379282</v>
+        <v>44130.734337928203</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>187</v>
@@ -7018,8 +7035,8 @@
       <c r="N115" s="2">
         <v>5.4</v>
       </c>
-      <c r="O115" s="2" t="str">
-        <v>NaN</v>
+      <c r="O115" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P115" s="2">
         <v>33.56</v>
@@ -7029,7 +7046,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -7040,7 +7057,7 @@
         <v>102</v>
       </c>
       <c r="D116" s="1">
-        <v>44130.7340743056</v>
+        <v>44130.734074305597</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>187</v>
@@ -7070,18 +7087,18 @@
       <c r="N116" s="2">
         <v>1</v>
       </c>
-      <c r="O116" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P116" s="2" t="str">
-        <v>NaN</v>
+      <c r="O116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>1</v>
       </c>
@@ -7092,7 +7109,7 @@
         <v>102</v>
       </c>
       <c r="D117" s="1">
-        <v>44130.7340743056</v>
+        <v>44130.734074305597</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>187</v>
@@ -7122,8 +7139,8 @@
       <c r="N117" s="2">
         <v>4</v>
       </c>
-      <c r="O117" s="2" t="str">
-        <v>NaN</v>
+      <c r="O117" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P117" s="2">
         <v>33.47</v>
@@ -7133,7 +7150,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -7144,7 +7161,7 @@
         <v>102</v>
       </c>
       <c r="D118" s="1">
-        <v>44130.7340804514</v>
+        <v>44130.734080451402</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>187</v>
@@ -7174,18 +7191,18 @@
       <c r="N118" s="2">
         <v>1</v>
       </c>
-      <c r="O118" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P118" s="2" t="str">
-        <v>NaN</v>
+      <c r="O118" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -7196,7 +7213,7 @@
         <v>102</v>
       </c>
       <c r="D119" s="1">
-        <v>44130.7340804514</v>
+        <v>44130.734080451402</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>187</v>
@@ -7226,18 +7243,18 @@
       <c r="N119" s="2">
         <v>3.62</v>
       </c>
-      <c r="O119" s="2" t="str">
-        <v>NaN</v>
+      <c r="O119" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P119" s="2">
-        <v>34.73</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -7248,7 +7265,7 @@
         <v>102</v>
       </c>
       <c r="D120" s="1">
-        <v>44130.7343444213</v>
+        <v>44130.734344421297</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>187</v>
@@ -7278,18 +7295,18 @@
       <c r="N120" s="2">
         <v>1</v>
       </c>
-      <c r="O120" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P120" s="2" t="str">
-        <v>NaN</v>
+      <c r="O120" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -7300,7 +7317,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="1">
-        <v>44130.7343444213</v>
+        <v>44130.734344421297</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>187</v>
@@ -7330,8 +7347,8 @@
       <c r="N121" s="2">
         <v>6.15</v>
       </c>
-      <c r="O121" s="2" t="str">
-        <v>NaN</v>
+      <c r="O121" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P121" s="2">
         <v>33.26</v>
@@ -7341,7 +7358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -7352,7 +7369,7 @@
         <v>102</v>
       </c>
       <c r="D122" s="1">
-        <v>44130.7340645602</v>
+        <v>44130.734064560202</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>187</v>
@@ -7382,18 +7399,18 @@
       <c r="N122" s="2">
         <v>1</v>
       </c>
-      <c r="O122" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P122" s="2" t="str">
-        <v>NaN</v>
+      <c r="O122" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -7404,7 +7421,7 @@
         <v>102</v>
       </c>
       <c r="D123" s="1">
-        <v>44130.7340645602</v>
+        <v>44130.734064560202</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>187</v>
@@ -7434,18 +7451,18 @@
       <c r="N123" s="2">
         <v>4.57</v>
       </c>
-      <c r="O123" s="2" t="str">
-        <v>NaN</v>
+      <c r="O123" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P123" s="2">
-        <v>33.62</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -7456,7 +7473,7 @@
         <v>102</v>
       </c>
       <c r="D124" s="1">
-        <v>44130.7343267245</v>
+        <v>44130.734326724501</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>187</v>
@@ -7486,18 +7503,18 @@
       <c r="N124" s="2">
         <v>1.02</v>
       </c>
-      <c r="O124" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P124" s="2" t="str">
-        <v>NaN</v>
+      <c r="O124" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>1</v>
       </c>
@@ -7508,7 +7525,7 @@
         <v>102</v>
       </c>
       <c r="D125" s="1">
-        <v>44130.7343267245</v>
+        <v>44130.734326724501</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>187</v>
@@ -7538,18 +7555,18 @@
       <c r="N125" s="2">
         <v>3.97</v>
       </c>
-      <c r="O125" s="2" t="str">
-        <v>NaN</v>
+      <c r="O125" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P125" s="2">
-        <v>34.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -7560,7 +7577,7 @@
         <v>102</v>
       </c>
       <c r="D126" s="1">
-        <v>44130.7343321412</v>
+        <v>44130.734332141197</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>187</v>
@@ -7590,8 +7607,8 @@
       <c r="N126" s="2">
         <v>1.73</v>
       </c>
-      <c r="O126" s="2" t="str">
-        <v>NaN</v>
+      <c r="O126" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P126" s="2">
         <v>32.08</v>
@@ -7601,7 +7618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -7612,7 +7629,7 @@
         <v>102</v>
       </c>
       <c r="D127" s="1">
-        <v>44130.7343321412</v>
+        <v>44130.734332141197</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>187</v>
@@ -7642,8 +7659,8 @@
       <c r="N127" s="2">
         <v>13.78</v>
       </c>
-      <c r="O127" s="2" t="str">
-        <v>NaN</v>
+      <c r="O127" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P127" s="2">
         <v>33.24</v>
@@ -7653,7 +7670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -7664,7 +7681,7 @@
         <v>102</v>
       </c>
       <c r="D128" s="1">
-        <v>44130.7340690741</v>
+        <v>44130.734069074097</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>187</v>
@@ -7694,18 +7711,18 @@
       <c r="N128" s="2">
         <v>1</v>
       </c>
-      <c r="O128" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P128" s="2" t="str">
-        <v>NaN</v>
+      <c r="O128" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -7716,7 +7733,7 @@
         <v>102</v>
       </c>
       <c r="D129" s="1">
-        <v>44130.7340690741</v>
+        <v>44130.734069074097</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>187</v>
@@ -7746,18 +7763,18 @@
       <c r="N129" s="2">
         <v>3.37</v>
       </c>
-      <c r="O129" s="2" t="str">
-        <v>NaN</v>
+      <c r="O129" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P129" s="2">
-        <v>33.84</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -7768,7 +7785,7 @@
         <v>102</v>
       </c>
       <c r="D130" s="1">
-        <v>44130.7340495718</v>
+        <v>44130.734049571802</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>187</v>
@@ -7798,18 +7815,18 @@
       <c r="N130" s="2">
         <v>1</v>
       </c>
-      <c r="O130" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P130" s="2" t="str">
-        <v>NaN</v>
+      <c r="O130" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -7820,7 +7837,7 @@
         <v>102</v>
       </c>
       <c r="D131" s="1">
-        <v>44130.7340495718</v>
+        <v>44130.734049571802</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>187</v>
@@ -7850,8 +7867,8 @@
       <c r="N131" s="2">
         <v>3.18</v>
       </c>
-      <c r="O131" s="2" t="str">
-        <v>NaN</v>
+      <c r="O131" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P131" s="2">
         <v>34.36</v>
@@ -7861,7 +7878,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -7872,7 +7889,7 @@
         <v>102</v>
       </c>
       <c r="D132" s="1">
-        <v>44130.7343155324</v>
+        <v>44130.734315532398</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>187</v>
@@ -7902,18 +7919,18 @@
       <c r="N132" s="2">
         <v>1</v>
       </c>
-      <c r="O132" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P132" s="2" t="str">
-        <v>NaN</v>
+      <c r="O132" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -7924,7 +7941,7 @@
         <v>102</v>
       </c>
       <c r="D133" s="1">
-        <v>44130.7343155324</v>
+        <v>44130.734315532398</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>187</v>
@@ -7954,18 +7971,18 @@
       <c r="N133" s="2">
         <v>2.59</v>
       </c>
-      <c r="O133" s="2" t="str">
-        <v>NaN</v>
+      <c r="O133" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P133" s="2">
-        <v>34.84</v>
+        <v>34.840000000000003</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -7976,7 +7993,7 @@
         <v>102</v>
       </c>
       <c r="D134" s="1">
-        <v>44130.7340585995</v>
+        <v>44130.734058599497</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>187</v>
@@ -8006,8 +8023,8 @@
       <c r="N134" s="2">
         <v>1.73</v>
       </c>
-      <c r="O134" s="2" t="str">
-        <v>NaN</v>
+      <c r="O134" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P134" s="2">
         <v>21.24</v>
@@ -8017,7 +8034,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -8028,7 +8045,7 @@
         <v>102</v>
       </c>
       <c r="D135" s="1">
-        <v>44130.7340585995</v>
+        <v>44130.734058599497</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>187</v>
@@ -8058,8 +8075,8 @@
       <c r="N135" s="2">
         <v>6.75</v>
       </c>
-      <c r="O135" s="2" t="str">
-        <v>NaN</v>
+      <c r="O135" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P135" s="2">
         <v>36.72</v>
@@ -8069,7 +8086,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -8080,7 +8097,7 @@
         <v>102</v>
       </c>
       <c r="D136" s="1">
-        <v>44130.7343209491</v>
+        <v>44130.734320949101</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>187</v>
@@ -8110,18 +8127,18 @@
       <c r="N136" s="2">
         <v>1.02</v>
       </c>
-      <c r="O136" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P136" s="2" t="str">
-        <v>NaN</v>
+      <c r="O136" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -8132,7 +8149,7 @@
         <v>102</v>
       </c>
       <c r="D137" s="1">
-        <v>44130.7343209491</v>
+        <v>44130.734320949101</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>187</v>
@@ -8162,8 +8179,8 @@
       <c r="N137" s="2">
         <v>5.13</v>
       </c>
-      <c r="O137" s="2" t="str">
-        <v>NaN</v>
+      <c r="O137" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P137" s="2">
         <v>34.1</v>
@@ -8173,7 +8190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -8184,7 +8201,7 @@
         <v>102</v>
       </c>
       <c r="D138" s="1">
-        <v>44130.734053912</v>
+        <v>44130.734053911998</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>187</v>
@@ -8214,18 +8231,18 @@
       <c r="N138" s="2">
         <v>1.01</v>
       </c>
-      <c r="O138" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P138" s="2" t="str">
-        <v>NaN</v>
+      <c r="O138" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -8236,7 +8253,7 @@
         <v>102</v>
       </c>
       <c r="D139" s="1">
-        <v>44130.734053912</v>
+        <v>44130.734053911998</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>187</v>
@@ -8266,8 +8283,8 @@
       <c r="N139" s="2">
         <v>2.73</v>
       </c>
-      <c r="O139" s="2" t="str">
-        <v>NaN</v>
+      <c r="O139" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P139" s="2">
         <v>35.75</v>
@@ -8277,7 +8294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -8288,7 +8305,7 @@
         <v>102</v>
       </c>
       <c r="D140" s="1">
-        <v>44130.7343059607</v>
+        <v>44130.734305960701</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>187</v>
@@ -8318,8 +8335,8 @@
       <c r="N140" s="2">
         <v>1.74</v>
       </c>
-      <c r="O140" s="2" t="str">
-        <v>NaN</v>
+      <c r="O140" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P140" s="2">
         <v>24.29</v>
@@ -8329,7 +8346,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -8340,7 +8357,7 @@
         <v>102</v>
       </c>
       <c r="D141" s="1">
-        <v>44130.7343059607</v>
+        <v>44130.734305960701</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>187</v>
@@ -8370,18 +8387,18 @@
       <c r="N141" s="2">
         <v>7.89</v>
       </c>
-      <c r="O141" s="2" t="str">
-        <v>NaN</v>
+      <c r="O141" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P141" s="2">
-        <v>33.27</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -8392,7 +8409,7 @@
         <v>102</v>
       </c>
       <c r="D142" s="1">
-        <v>44130.7340396412</v>
+        <v>44130.734039641196</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>187</v>
@@ -8422,18 +8439,18 @@
       <c r="N142" s="2">
         <v>1</v>
       </c>
-      <c r="O142" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P142" s="2" t="str">
-        <v>NaN</v>
+      <c r="O142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -8444,7 +8461,7 @@
         <v>102</v>
       </c>
       <c r="D143" s="1">
-        <v>44130.7340396412</v>
+        <v>44130.734039641196</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>187</v>
@@ -8474,8 +8491,8 @@
       <c r="N143" s="2">
         <v>4.96</v>
       </c>
-      <c r="O143" s="2" t="str">
-        <v>NaN</v>
+      <c r="O143" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P143" s="2">
         <v>33.74</v>
@@ -8485,7 +8502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -8496,7 +8513,7 @@
         <v>102</v>
       </c>
       <c r="D144" s="1">
-        <v>44130.7343103009</v>
+        <v>44130.734310300897</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>187</v>
@@ -8526,18 +8543,18 @@
       <c r="N144" s="2">
         <v>1.01</v>
       </c>
-      <c r="O144" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P144" s="2" t="str">
-        <v>NaN</v>
+      <c r="O144" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -8548,7 +8565,7 @@
         <v>102</v>
       </c>
       <c r="D145" s="1">
-        <v>44130.7343103009</v>
+        <v>44130.734310300897</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>187</v>
@@ -8578,8 +8595,8 @@
       <c r="N145" s="2">
         <v>3.87</v>
       </c>
-      <c r="O145" s="2" t="str">
-        <v>NaN</v>
+      <c r="O145" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P145" s="2">
         <v>34.25</v>
@@ -8589,7 +8606,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -8600,7 +8617,7 @@
         <v>102</v>
       </c>
       <c r="D146" s="1">
-        <v>44130.7342962153</v>
+        <v>44130.734296215298</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>187</v>
@@ -8630,18 +8647,18 @@
       <c r="N146" s="2">
         <v>1</v>
       </c>
-      <c r="O146" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P146" s="2" t="str">
-        <v>NaN</v>
+      <c r="O146" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -8652,7 +8669,7 @@
         <v>102</v>
       </c>
       <c r="D147" s="1">
-        <v>44130.7342962153</v>
+        <v>44130.734296215298</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>187</v>
@@ -8682,8 +8699,8 @@
       <c r="N147" s="2">
         <v>3.09</v>
       </c>
-      <c r="O147" s="2" t="str">
-        <v>NaN</v>
+      <c r="O147" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P147" s="2">
         <v>34.99</v>
@@ -8693,7 +8710,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -8734,8 +8751,8 @@
       <c r="N148" s="2">
         <v>1.46</v>
       </c>
-      <c r="O148" s="2" t="str">
-        <v>NaN</v>
+      <c r="O148" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P148" s="2">
         <v>36.97</v>
@@ -8745,7 +8762,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -8784,10 +8801,10 @@
         <v>146</v>
       </c>
       <c r="N149" s="2">
-        <v>4.15</v>
-      </c>
-      <c r="O149" s="2" t="str">
-        <v>NaN</v>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P149" s="2">
         <v>33.96</v>
@@ -8797,7 +8814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -8808,7 +8825,7 @@
         <v>102</v>
       </c>
       <c r="D150" s="1">
-        <v>44130.7343012732</v>
+        <v>44130.734301273202</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>187</v>
@@ -8838,18 +8855,18 @@
       <c r="N150" s="2">
         <v>1.01</v>
       </c>
-      <c r="O150" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P150" s="2" t="str">
-        <v>NaN</v>
+      <c r="O150" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -8860,7 +8877,7 @@
         <v>102</v>
       </c>
       <c r="D151" s="1">
-        <v>44130.7343012732</v>
+        <v>44130.734301273202</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>187</v>
@@ -8888,10 +8905,10 @@
         <v>146</v>
       </c>
       <c r="N151" s="2">
-        <v>4.11</v>
-      </c>
-      <c r="O151" s="2" t="str">
-        <v>NaN</v>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P151" s="2">
         <v>33.61</v>
@@ -8901,7 +8918,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -8912,7 +8929,7 @@
         <v>102</v>
       </c>
       <c r="D152" s="1">
-        <v>44130.7340291667</v>
+        <v>44130.734029166699</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>187</v>
@@ -8942,18 +8959,18 @@
       <c r="N152" s="2">
         <v>1.01</v>
       </c>
-      <c r="O152" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P152" s="2" t="str">
-        <v>NaN</v>
+      <c r="O152" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q152" s="2"/>
       <c r="R152" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -8964,7 +8981,7 @@
         <v>102</v>
       </c>
       <c r="D153" s="1">
-        <v>44130.7340291667</v>
+        <v>44130.734029166699</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>187</v>
@@ -8994,8 +9011,8 @@
       <c r="N153" s="2">
         <v>3.26</v>
       </c>
-      <c r="O153" s="2" t="str">
-        <v>NaN</v>
+      <c r="O153" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P153" s="2">
         <v>34.83</v>
@@ -9005,7 +9022,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -9046,8 +9063,8 @@
       <c r="N154" s="2">
         <v>1.75</v>
       </c>
-      <c r="O154" s="2" t="str">
-        <v>NaN</v>
+      <c r="O154" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P154" s="2">
         <v>19.16</v>
@@ -9057,7 +9074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -9096,10 +9113,10 @@
         <v>146</v>
       </c>
       <c r="N155" s="2">
-        <v>8.2</v>
-      </c>
-      <c r="O155" s="2" t="str">
-        <v>NaN</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P155" s="2">
         <v>35.08</v>
@@ -9109,7 +9126,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -9120,7 +9137,7 @@
         <v>102</v>
       </c>
       <c r="D156" s="1">
-        <v>44130.7342851968</v>
+        <v>44130.734285196799</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>187</v>
@@ -9150,8 +9167,8 @@
       <c r="N156" s="2">
         <v>1.72</v>
       </c>
-      <c r="O156" s="2" t="str">
-        <v>NaN</v>
+      <c r="O156" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P156" s="2">
         <v>27.55</v>
@@ -9161,7 +9178,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -9172,7 +9189,7 @@
         <v>102</v>
       </c>
       <c r="D157" s="1">
-        <v>44130.7342851968</v>
+        <v>44130.734285196799</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>187</v>
@@ -9202,8 +9219,8 @@
       <c r="N157" s="2">
         <v>6.83</v>
       </c>
-      <c r="O157" s="2" t="str">
-        <v>NaN</v>
+      <c r="O157" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P157" s="2">
         <v>33.44</v>
@@ -9213,7 +9230,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -9224,7 +9241,7 @@
         <v>102</v>
       </c>
       <c r="D158" s="1">
-        <v>44130.7340168981</v>
+        <v>44130.734016898103</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>187</v>
@@ -9254,18 +9271,18 @@
       <c r="N158" s="2">
         <v>1.01</v>
       </c>
-      <c r="O158" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P158" s="2" t="str">
-        <v>NaN</v>
+      <c r="O158" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -9276,7 +9293,7 @@
         <v>102</v>
       </c>
       <c r="D159" s="1">
-        <v>44130.7340168981</v>
+        <v>44130.734016898103</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>187</v>
@@ -9304,20 +9321,20 @@
         <v>146</v>
       </c>
       <c r="N159" s="2">
-        <v>2.2</v>
-      </c>
-      <c r="O159" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P159" s="2" t="str">
-        <v>NaN</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -9328,7 +9345,7 @@
         <v>102</v>
       </c>
       <c r="D160" s="1">
-        <v>44130.7342904398</v>
+        <v>44130.734290439803</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>187</v>
@@ -9358,18 +9375,18 @@
       <c r="N160" s="2">
         <v>1.05</v>
       </c>
-      <c r="O160" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P160" s="2" t="str">
-        <v>NaN</v>
+      <c r="O160" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -9380,7 +9397,7 @@
         <v>102</v>
       </c>
       <c r="D161" s="1">
-        <v>44130.7342904398</v>
+        <v>44130.734290439803</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>187</v>
@@ -9410,8 +9427,8 @@
       <c r="N161" s="2">
         <v>5.8</v>
       </c>
-      <c r="O161" s="2" t="str">
-        <v>NaN</v>
+      <c r="O161" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P161" s="2">
         <v>33.32</v>
@@ -9421,7 +9438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -9432,7 +9449,7 @@
         <v>102</v>
       </c>
       <c r="D162" s="1">
-        <v>44130.7342684144</v>
+        <v>44130.734268414402</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>187</v>
@@ -9462,18 +9479,18 @@
       <c r="N162" s="2">
         <v>1.01</v>
       </c>
-      <c r="O162" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P162" s="2" t="str">
-        <v>NaN</v>
+      <c r="O162" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -9484,7 +9501,7 @@
         <v>102</v>
       </c>
       <c r="D163" s="1">
-        <v>44130.7342684144</v>
+        <v>44130.734268414402</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>187</v>
@@ -9512,10 +9529,10 @@
         <v>146</v>
       </c>
       <c r="N163" s="2">
-        <v>4.27</v>
-      </c>
-      <c r="O163" s="2" t="str">
-        <v>NaN</v>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P163" s="2">
         <v>33.51</v>
@@ -9525,7 +9542,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -9536,7 +9553,7 @@
         <v>102</v>
       </c>
       <c r="D164" s="1">
-        <v>44130.7340224884</v>
+        <v>44130.734022488403</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>187</v>
@@ -9566,18 +9583,18 @@
       <c r="N164" s="2">
         <v>1</v>
       </c>
-      <c r="O164" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P164" s="2" t="str">
-        <v>NaN</v>
+      <c r="O164" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -9588,7 +9605,7 @@
         <v>102</v>
       </c>
       <c r="D165" s="1">
-        <v>44130.7340224884</v>
+        <v>44130.734022488403</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>187</v>
@@ -9618,8 +9635,8 @@
       <c r="N165" s="2">
         <v>5.89</v>
       </c>
-      <c r="O165" s="2" t="str">
-        <v>NaN</v>
+      <c r="O165" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P165" s="2">
         <v>33.07</v>
@@ -9629,7 +9646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -9640,7 +9657,7 @@
         <v>102</v>
       </c>
       <c r="D166" s="1">
-        <v>44130.7340055208</v>
+        <v>44130.734005520797</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>187</v>
@@ -9670,18 +9687,18 @@
       <c r="N166" s="2">
         <v>1.01</v>
       </c>
-      <c r="O166" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P166" s="2" t="str">
-        <v>NaN</v>
+      <c r="O166" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -9692,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="D167" s="1">
-        <v>44130.7340055208</v>
+        <v>44130.734005520797</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>187</v>
@@ -9722,18 +9739,18 @@
       <c r="N167" s="2">
         <v>3.94</v>
       </c>
-      <c r="O167" s="2" t="str">
-        <v>NaN</v>
+      <c r="O167" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P167" s="2">
-        <v>33.52</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -9744,7 +9761,7 @@
         <v>102</v>
       </c>
       <c r="D168" s="1">
-        <v>44130.7342799653</v>
+        <v>44130.734279965298</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>187</v>
@@ -9774,18 +9791,18 @@
       <c r="N168" s="2">
         <v>1.02</v>
       </c>
-      <c r="O168" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P168" s="2" t="str">
-        <v>NaN</v>
+      <c r="O168" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -9796,7 +9813,7 @@
         <v>102</v>
       </c>
       <c r="D169" s="1">
-        <v>44130.7342799653</v>
+        <v>44130.734279965298</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>187</v>
@@ -9824,10 +9841,10 @@
         <v>146</v>
       </c>
       <c r="N169" s="2">
-        <v>4.56</v>
-      </c>
-      <c r="O169" s="2" t="str">
-        <v>NaN</v>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P169" s="2">
         <v>33.67</v>
@@ -9837,7 +9854,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -9848,7 +9865,7 @@
         <v>102</v>
       </c>
       <c r="D170" s="1">
-        <v>44130.7340114815</v>
+        <v>44130.734011481502</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>187</v>
@@ -9878,18 +9895,18 @@
       <c r="N170" s="2">
         <v>1.01</v>
       </c>
-      <c r="O170" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P170" s="2" t="str">
-        <v>NaN</v>
+      <c r="O170" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P170" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -9900,7 +9917,7 @@
         <v>102</v>
       </c>
       <c r="D171" s="1">
-        <v>44130.7340114815</v>
+        <v>44130.734011481502</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>187</v>
@@ -9930,8 +9947,8 @@
       <c r="N171" s="2">
         <v>4.71</v>
       </c>
-      <c r="O171" s="2" t="str">
-        <v>NaN</v>
+      <c r="O171" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P171" s="2">
         <v>33.08</v>
@@ -9941,7 +9958,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -9952,7 +9969,7 @@
         <v>102</v>
       </c>
       <c r="D172" s="1">
-        <v>44130.7342745486</v>
+        <v>44130.734274548602</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>187</v>
@@ -9982,8 +9999,8 @@
       <c r="N172" s="2">
         <v>1.74</v>
       </c>
-      <c r="O172" s="2" t="str">
-        <v>NaN</v>
+      <c r="O172" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P172" s="2">
         <v>26.12</v>
@@ -9993,7 +10010,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -10004,7 +10021,7 @@
         <v>102</v>
       </c>
       <c r="D173" s="1">
-        <v>44130.7342745486</v>
+        <v>44130.734274548602</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>187</v>
@@ -10032,10 +10049,10 @@
         <v>146</v>
       </c>
       <c r="N173" s="2">
-        <v>8.63</v>
-      </c>
-      <c r="O173" s="2" t="str">
-        <v>NaN</v>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P173" s="2">
         <v>32.6</v>
@@ -10045,7 +10062,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -10056,7 +10073,7 @@
         <v>102</v>
       </c>
       <c r="D174" s="1">
-        <v>44130.7339939583</v>
+        <v>44130.733993958303</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>187</v>
@@ -10086,18 +10103,18 @@
       <c r="N174" s="2">
         <v>1.01</v>
       </c>
-      <c r="O174" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P174" s="2" t="str">
-        <v>NaN</v>
+      <c r="O174" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -10108,7 +10125,7 @@
         <v>102</v>
       </c>
       <c r="D175" s="1">
-        <v>44130.7339939583</v>
+        <v>44130.733993958303</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>187</v>
@@ -10138,18 +10155,18 @@
       <c r="N175" s="2">
         <v>1.79</v>
       </c>
-      <c r="O175" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P175" s="2" t="str">
-        <v>NaN</v>
+      <c r="O175" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P175" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -10160,7 +10177,7 @@
         <v>102</v>
       </c>
       <c r="D176" s="1">
-        <v>44130.7342573958</v>
+        <v>44130.734257395801</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>187</v>
@@ -10190,8 +10207,8 @@
       <c r="N176" s="2">
         <v>1.21</v>
       </c>
-      <c r="O176" s="2" t="str">
-        <v>NaN</v>
+      <c r="O176" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P176" s="2">
         <v>40.25</v>
@@ -10201,7 +10218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -10212,7 +10229,7 @@
         <v>102</v>
       </c>
       <c r="D177" s="1">
-        <v>44130.7342573958</v>
+        <v>44130.734257395801</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>187</v>
@@ -10242,8 +10259,8 @@
       <c r="N177" s="2">
         <v>4.2</v>
       </c>
-      <c r="O177" s="2" t="str">
-        <v>NaN</v>
+      <c r="O177" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P177" s="2">
         <v>33.39</v>
@@ -10253,7 +10270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -10264,7 +10281,7 @@
         <v>102</v>
       </c>
       <c r="D178" s="1">
-        <v>44130.733999375</v>
+        <v>44130.733999374999</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>187</v>
@@ -10294,18 +10311,18 @@
       <c r="N178" s="2">
         <v>1.01</v>
       </c>
-      <c r="O178" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P178" s="2" t="str">
-        <v>NaN</v>
+      <c r="O178" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P178" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -10316,7 +10333,7 @@
         <v>102</v>
       </c>
       <c r="D179" s="1">
-        <v>44130.733999375</v>
+        <v>44130.733999374999</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>187</v>
@@ -10346,8 +10363,8 @@
       <c r="N179" s="2">
         <v>4.95</v>
       </c>
-      <c r="O179" s="2" t="str">
-        <v>NaN</v>
+      <c r="O179" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P179" s="2">
         <v>33.76</v>
@@ -10357,7 +10374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -10368,7 +10385,7 @@
         <v>102</v>
       </c>
       <c r="D180" s="1">
-        <v>44130.7342629977</v>
+        <v>44130.734262997699</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>187</v>
@@ -10398,18 +10415,18 @@
       <c r="N180" s="2">
         <v>1</v>
       </c>
-      <c r="O180" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P180" s="2" t="str">
-        <v>NaN</v>
+      <c r="O180" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -10420,7 +10437,7 @@
         <v>102</v>
       </c>
       <c r="D181" s="1">
-        <v>44130.7342629977</v>
+        <v>44130.734262997699</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>187</v>
@@ -10450,8 +10467,8 @@
       <c r="N181" s="2">
         <v>4.09</v>
       </c>
-      <c r="O181" s="2" t="str">
-        <v>NaN</v>
+      <c r="O181" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P181" s="2">
         <v>33.72</v>
@@ -10461,7 +10478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -10472,7 +10489,7 @@
         <v>102</v>
       </c>
       <c r="D182" s="1">
-        <v>44130.7342463773</v>
+        <v>44130.734246377302</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>187</v>
@@ -10502,18 +10519,18 @@
       <c r="N182" s="2">
         <v>1</v>
       </c>
-      <c r="O182" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P182" s="2" t="str">
-        <v>NaN</v>
+      <c r="O182" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q182" s="2"/>
       <c r="R182" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -10524,7 +10541,7 @@
         <v>102</v>
       </c>
       <c r="D183" s="1">
-        <v>44130.7342463773</v>
+        <v>44130.734246377302</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>187</v>
@@ -10554,8 +10571,8 @@
       <c r="N183" s="2">
         <v>4.92</v>
       </c>
-      <c r="O183" s="2" t="str">
-        <v>NaN</v>
+      <c r="O183" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P183" s="2">
         <v>33.22</v>
@@ -10565,7 +10582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -10576,7 +10593,7 @@
         <v>102</v>
       </c>
       <c r="D184" s="1">
-        <v>44130.7339829514</v>
+        <v>44130.733982951402</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>187</v>
@@ -10606,18 +10623,18 @@
       <c r="N184" s="2">
         <v>1</v>
       </c>
-      <c r="O184" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P184" s="2" t="str">
-        <v>NaN</v>
+      <c r="O184" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P184" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -10628,7 +10645,7 @@
         <v>102</v>
       </c>
       <c r="D185" s="1">
-        <v>44130.7339829514</v>
+        <v>44130.733982951402</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>187</v>
@@ -10658,18 +10675,18 @@
       <c r="N185" s="2">
         <v>4.22</v>
       </c>
-      <c r="O185" s="2" t="str">
-        <v>NaN</v>
+      <c r="O185" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P185" s="2">
-        <v>33.91</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -10680,7 +10697,7 @@
         <v>102</v>
       </c>
       <c r="D186" s="1">
-        <v>44130.7339885417</v>
+        <v>44130.733988541702</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>187</v>
@@ -10710,18 +10727,18 @@
       <c r="N186" s="2">
         <v>1</v>
       </c>
-      <c r="O186" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P186" s="2" t="str">
-        <v>NaN</v>
+      <c r="O186" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P186" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -10732,7 +10749,7 @@
         <v>102</v>
       </c>
       <c r="D187" s="1">
-        <v>44130.7339885417</v>
+        <v>44130.733988541702</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>187</v>
@@ -10762,8 +10779,8 @@
       <c r="N187" s="2">
         <v>2.84</v>
       </c>
-      <c r="O187" s="2" t="str">
-        <v>NaN</v>
+      <c r="O187" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P187" s="2">
         <v>34.68</v>
@@ -10773,7 +10790,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -10784,7 +10801,7 @@
         <v>102</v>
       </c>
       <c r="D188" s="1">
-        <v>44130.7342521644</v>
+        <v>44130.734252164402</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>187</v>
@@ -10814,18 +10831,18 @@
       <c r="N188" s="2">
         <v>1</v>
       </c>
-      <c r="O188" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P188" s="2" t="str">
-        <v>NaN</v>
+      <c r="O188" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P188" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -10836,7 +10853,7 @@
         <v>102</v>
       </c>
       <c r="D189" s="1">
-        <v>44130.7342521644</v>
+        <v>44130.734252164402</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>187</v>
@@ -10866,18 +10883,18 @@
       <c r="N189" s="2">
         <v>6.5</v>
       </c>
-      <c r="O189" s="2" t="str">
-        <v>NaN</v>
+      <c r="O189" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P189" s="2">
-        <v>33.09</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -10918,8 +10935,8 @@
       <c r="N190" s="2">
         <v>1.43</v>
       </c>
-      <c r="O190" s="2" t="str">
-        <v>NaN</v>
+      <c r="O190" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P190" s="2">
         <v>41.39</v>
@@ -10929,7 +10946,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -10970,18 +10987,18 @@
       <c r="N191" s="2">
         <v>11.74</v>
       </c>
-      <c r="O191" s="2" t="str">
-        <v>NaN</v>
+      <c r="O191" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P191" s="2">
-        <v>33.52</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -11022,18 +11039,18 @@
       <c r="N192" s="2">
         <v>1.01</v>
       </c>
-      <c r="O192" s="2" t="str">
-        <v>NaN</v>
-      </c>
-      <c r="P192" s="2" t="str">
-        <v>NaN</v>
+      <c r="O192" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P192" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -11074,8 +11091,8 @@
       <c r="N193" s="2">
         <v>5.59</v>
       </c>
-      <c r="O193" s="2" t="str">
-        <v>NaN</v>
+      <c r="O193" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="P193" s="2">
         <v>33.43</v>
@@ -11086,9 +11103,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sheetProtection objects="1" scenarios="1"/>
-  <printOptions/>
+  <autoFilter ref="A1:R193" xr:uid="{F2DDE110-8672-744C-A88A-1DF43042D4AD}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="100055308801"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/lauf2-26okt_2020_10_26_18_38_24.xlsx
+++ b/data/lauf2-26okt_2020_10_26_18_38_24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michael/Dropbox/Repositories/Utility2MOLIS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huber.michael/Dropbox/Repositories/Utility2MOLIS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE736174-E041-3845-B0C4-24808730E914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738FDBC-155F-F843-8632-3F16613A1F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="6160" windowWidth="39200" windowHeight="21960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="5740" windowWidth="39200" windowHeight="21960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sheet" sheetId="1" r:id="rId1"/>
@@ -1046,14 +1046,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>1</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>1</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>1</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>1</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>1</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>1</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>1</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>1</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>1</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>1</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>1</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>1</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>1</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>1</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>1</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>1</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>1</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>1</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>1</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>1</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>1</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>1</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>1</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>1</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>1</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>1</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>1</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>1</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>1</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>1</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>1</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>1</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>1</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>1</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>1</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>1</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>1</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>1</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>1</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>1</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>1</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>1</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>1</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>1</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>1</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>1</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>1</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>1</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>1</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>1</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>1</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>1</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>1</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>1</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>1</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>1</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>1</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>1</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>1</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>1</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>1</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>1</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>1</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>1</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>1</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>1</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>1</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>1</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>1</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>1</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>1</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>1</v>
       </c>
@@ -11104,13 +11104,7 @@
     </row>
   </sheetData>
   <sheetProtection objects="1" scenarios="1"/>
-  <autoFilter ref="A1:R193" xr:uid="{F2DDE110-8672-744C-A88A-1DF43042D4AD}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="100055308801"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R193" xr:uid="{F2DDE110-8672-744C-A88A-1DF43042D4AD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>